--- a/class_schedules/RHETORIC & COMPOSITION (RHET).xlsx
+++ b/class_schedules/RHETORIC & COMPOSITION (RHET).xlsx
@@ -14,81 +14,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>216A</t>
-  </si>
-  <si>
-    <t>304</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>995F</t>
+  </si>
+  <si>
+    <t>995H</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>14766</t>
-  </si>
-  <si>
-    <t>14801</t>
-  </si>
-  <si>
-    <t>14802</t>
-  </si>
-  <si>
-    <t>14767</t>
+    <t>001</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>12189</t>
+  </si>
+  <si>
+    <t>14803</t>
+  </si>
+  <si>
+    <t>14804</t>
+  </si>
+  <si>
+    <t>14805</t>
+  </si>
+  <si>
+    <t>14228</t>
+  </si>
+  <si>
+    <t>14025</t>
+  </si>
+  <si>
+    <t>14806</t>
+  </si>
+  <si>
+    <t>7393</t>
+  </si>
+  <si>
+    <t>14807</t>
+  </si>
+  <si>
+    <t>11454</t>
+  </si>
+  <si>
+    <t>14226</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Doing Musical Ethnography TR</t>
-  </si>
-  <si>
-    <t>The Public Intellectual &amp; Arti</t>
-  </si>
-  <si>
-    <t>Decolonizing Strategies TR</t>
-  </si>
-  <si>
-    <t>0930-1050am</t>
+    <t>Academic Writing Amer Classrm</t>
+  </si>
+  <si>
+    <t>Writing for College &amp; Beyond</t>
+  </si>
+  <si>
+    <t>Writing to Learn &amp; Participate</t>
+  </si>
+  <si>
+    <t>Speaking and Writing</t>
+  </si>
+  <si>
+    <t>Journalism Basics</t>
+  </si>
+  <si>
+    <t>Literary Journalism</t>
+  </si>
+  <si>
+    <t>Social Justice, Media, Memory</t>
+  </si>
+  <si>
+    <t>Teaching &amp; Tutoring Writing</t>
+  </si>
+  <si>
+    <t>Speaking Lab</t>
+  </si>
+  <si>
+    <t>Private Reading -</t>
+  </si>
+  <si>
+    <t>MWF</t>
   </si>
   <si>
     <t>TR</t>
   </si>
   <si>
-    <t>0130-0245pm</t>
-  </si>
-  <si>
-    <t>CBIB</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>1000-1050am</t>
+  </si>
+  <si>
+    <t>0900-0950am</t>
+  </si>
+  <si>
+    <t>1100-1150am</t>
+  </si>
+  <si>
+    <t>0230-0320pm</t>
   </si>
   <si>
     <t>0300-0415pm</t>
   </si>
   <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>STUOC</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>Metz Kathryn</t>
-  </si>
-  <si>
-    <t>Hadley Fredara</t>
-  </si>
-  <si>
-    <t>Fraser Jennifer</t>
+    <t>0930-1045am</t>
+  </si>
+  <si>
+    <t>0700-0900pm</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Sundt Harald</t>
+  </si>
+  <si>
+    <t>Smith Cortney</t>
+  </si>
+  <si>
+    <t>Cooper Jan</t>
+  </si>
+  <si>
+    <t>Beutin Lyndsey</t>
+  </si>
+  <si>
+    <t>McMillin Laurie</t>
+  </si>
+  <si>
+    <t>Guidry Denise</t>
   </si>
 </sst>
 </file>
@@ -446,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,31 +588,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -527,31 +623,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -562,31 +658,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -597,31 +693,276 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="D12" t="s">
         <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
